--- a/博客-文章/王喆/目录.xlsx
+++ b/博客-文章/王喆/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/王喆/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F33EFB-96D8-9A4C-AF0E-2DB8FC077715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76267BF-9BE2-DC4E-AF5C-4CC17E8B043D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2260" windowWidth="28240" windowHeight="17440" xr2:uid="{7409FE34-15D6-B64C-BF58-D8854FBAF8E5}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -582,17 +582,17 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/博客-文章/王喆/目录.xlsx
+++ b/博客-文章/王喆/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/王喆/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76267BF-9BE2-DC4E-AF5C-4CC17E8B043D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF6614-86C5-EC4F-80AA-5174EA434BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2260" windowWidth="28240" windowHeight="17440" xr2:uid="{7409FE34-15D6-B64C-BF58-D8854FBAF8E5}"/>
   </bookViews>
@@ -533,7 +533,10 @@
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -577,7 +580,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -597,7 +600,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -607,7 +610,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/博客-文章/王喆/目录.xlsx
+++ b/博客-文章/王喆/目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/王喆/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF6614-86C5-EC4F-80AA-5174EA434BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60882105-9F96-184A-BD75-99CD7D455500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="2260" windowWidth="28240" windowHeight="17440" xr2:uid="{7409FE34-15D6-B64C-BF58-D8854FBAF8E5}"/>
+    <workbookView xWindow="7600" yWindow="1920" windowWidth="28240" windowHeight="17440" xr2:uid="{7409FE34-15D6-B64C-BF58-D8854FBAF8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>「AI大咖谈」DLP-KDD最佳论文作者谈「图神经网络」的特点、发展与应用</t>
   </si>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>文章标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周半，4篇paper，5篇笔记;aribnb之前看的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64EB0EB-5EE6-7247-AB06-37FAE038C6B0}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -544,82 +548,85 @@
     <col min="1" max="1" width="85.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>25</v>
       </c>

--- a/博客-文章/王喆/目录.xlsx
+++ b/博客-文章/王喆/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/王喆/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60882105-9F96-184A-BD75-99CD7D455500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5330D8-EFC3-A04D-B98C-3650570F4BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7600" yWindow="1920" windowWidth="28240" windowHeight="17440" xr2:uid="{7409FE34-15D6-B64C-BF58-D8854FBAF8E5}"/>
   </bookViews>
@@ -540,7 +540,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -612,7 +612,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/博客-文章/王喆/目录.xlsx
+++ b/博客-文章/王喆/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/王喆/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5330D8-EFC3-A04D-B98C-3650570F4BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B425DE-38A3-5E42-9C1E-C6CC94313377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7600" yWindow="1920" windowWidth="28240" windowHeight="17440" xr2:uid="{7409FE34-15D6-B64C-BF58-D8854FBAF8E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>「AI大咖谈」DLP-KDD最佳论文作者谈「图神经网络」的特点、发展与应用</t>
   </si>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>一周半，4篇paper，5篇笔记;aribnb之前看的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里MLR可以一看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +544,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -620,6 +624,9 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">

--- a/博客-文章/王喆/目录.xlsx
+++ b/博客-文章/王喆/目录.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/王喆/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B425DE-38A3-5E42-9C1E-C6CC94313377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B6F2EC-DDC6-234D-980E-4D8544CEFDB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="1920" windowWidth="28240" windowHeight="17440" xr2:uid="{7409FE34-15D6-B64C-BF58-D8854FBAF8E5}"/>
+    <workbookView xWindow="13460" yWindow="1920" windowWidth="22380" windowHeight="17440" xr2:uid="{7409FE34-15D6-B64C-BF58-D8854FBAF8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -541,10 +541,10 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -634,7 +634,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/博客-文章/王喆/目录.xlsx
+++ b/博客-文章/王喆/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/王喆/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B6F2EC-DDC6-234D-980E-4D8544CEFDB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F1E51D-553C-DB4B-8113-602705F3477E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13460" yWindow="1920" windowWidth="22380" windowHeight="17440" xr2:uid="{7409FE34-15D6-B64C-BF58-D8854FBAF8E5}"/>
   </bookViews>
@@ -541,10 +541,10 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -644,7 +644,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
